--- a/exp/empathy_intonation_perc/trials/lextale_practice_trials.xlsx
+++ b/exp/empathy_intonation_perc/trials/lextale_practice_trials.xlsx
@@ -392,7 +392,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -438,7 +438,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
